--- a/Files/Teams.xlsx
+++ b/Files/Teams.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19229"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895AFD29-6B9A-49F0-8109-A4503A70B9B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="55500" windowHeight="27525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -30,21 +31,6 @@
     <t>Members</t>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>admin@cand3.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>katiej@cand3.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>katiej@cand3.onmicrosoft.com;rong@cand3.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
     <t>AccessType</t>
   </si>
   <si>
@@ -54,13 +40,31 @@
     <t>Public</t>
   </si>
   <si>
-    <t>Team 3</t>
+    <t>admin@M365B880951.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>AdeleV@M365B880951.OnMicrosoft.com;AlexW@M365B880951.OnMicrosoft.com</t>
+  </si>
+  <si>
+    <t>AlexW@M365B880951.OnMicrosoft.com</t>
+  </si>
+  <si>
+    <t>AdeleV@M365B880951.OnMicrosoft.com;AlexW@M365B880951.OnMicrosoft.com;AllanD@M365B880951.OnMicrosoft.com</t>
+  </si>
+  <si>
+    <t>ICU</t>
+  </si>
+  <si>
+    <t>Radiology</t>
+  </si>
+  <si>
+    <t>Pediatrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -412,52 +416,56 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8FDC76D9-FB77-4D62-BBB6-738116E25DBC}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{776244F2-E403-4809-85B5-DCD6D179426A}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{9C610B02-D2EE-4662-9377-BB98DD8E45CE}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{295ECCF3-DF74-41C6-AD5A-FED6EA381D25}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{D0A1ED66-2B32-469C-88AA-3A559EDB9095}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{00AE79C9-0BE2-4A37-B37D-2C6FAC89A2C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>